--- a/data/Cotações.xlsx
+++ b/data/Cotações.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.1881</v>
+        <v>5.1432</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>44382.80999361111</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44844.96841954791</v>
+        <v>44867.58514299008</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.0257</v>
+        <v>5.0738</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99331</v>
+        <v>105691</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
